--- a/Pandas_Class/companias_NY.xlsx
+++ b/Pandas_Class/companias_NY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E308"/>
+  <dimension ref="A1:E304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -494,7 +494,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -540,7 +540,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consumer</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -563,7 +563,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -586,7 +586,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -632,7 +632,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -655,7 +655,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -678,7 +678,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -701,7 +701,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -724,7 +724,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Consumer</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -747,7 +747,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -770,7 +770,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Consumer</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -793,7 +793,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -816,7 +816,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Consumer</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -839,7 +839,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -862,7 +862,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Support</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -908,7 +908,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -931,7 +931,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -954,7 +954,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -977,7 +977,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Consumer</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Product</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Hardware</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Consumer</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Transportation</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Consumer</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Logistics</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Consumer</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Transportation</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Consumer</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Product</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Consumer</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Consumer</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Recruiting</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Consumer</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Transportation</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Consumer</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -3148,90 +3148,90 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Joonko</t>
+          <t>Cityblock Health</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Recruiting</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>38</v>
+        <v>891</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cityblock Health</t>
+          <t>Flatiron Health</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>891</v>
+        <v>324</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Flatiron Health</t>
+          <t>Bunnii</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Bunnii</t>
+          <t>Haven Technologies</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Subsidiary</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -3240,21 +3240,21 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Haven Technologies</t>
+          <t>Fractal Software</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Subsidiary</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -3263,57 +3263,57 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Fractal Software</t>
+          <t>SmartAsset</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SmartAsset</t>
+          <t>DHI Group</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Post-IPO</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DHI Group</t>
+          <t>Lemonade</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3323,375 +3323,375 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Recruiting</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>481</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Lemonade</t>
+          <t>Tessera</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Post-IPO</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>481</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Tessera</t>
+          <t>Similarweb</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Post-IPO</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>43</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Similarweb</t>
+          <t>Buzzer</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Post-IPO</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>235</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Buzzer</t>
+          <t>Glean AI</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Seed</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Glean AI</t>
+          <t>TheSkimm</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Seed</t>
+          <t>Series C</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TheSkimm</t>
+          <t>Lev</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Series C</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>28</v>
+        <v>114</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Lev</t>
+          <t>Greenhouse</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Private Equity</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Greenhouse</t>
+          <t>Teampay</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Private Equity</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Recruiting</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Chief</t>
+          <t>Gloat</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>140</v>
+        <v>192</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Teampay</t>
+          <t>Insider</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Gloat</t>
+          <t>Community Gaming</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Insider</t>
+          <t>Calibrate</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Community Gaming</t>
+          <t>Boost</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Calibrate</t>
+          <t>Kyndryl</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Post-IPO</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Boost</t>
+          <t>Boxed</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Post-IPO</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>37</v>
+        <v>365</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Kyndryl</t>
+          <t>Morning Brew</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Post-IPO</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Infrastructure</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -3700,80 +3700,80 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Boxed</t>
+          <t>Catch</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Post-IPO</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>365</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Morning Brew</t>
+          <t>Take-Two Interactive</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Post-IPO</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Catch</t>
+          <t>Messari</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Take-Two Interactive</t>
+          <t>DigitalOcean</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3783,181 +3783,181 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Consumer</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>2700</v>
+        <v>491</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Messari</t>
+          <t>Betterment</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series F</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>61</v>
+        <v>435</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>DigitalOcean</t>
+          <t>Electric</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Post-IPO</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Infrastructure</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>491</v>
+        <v>212</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Betterment</t>
+          <t>EMX Digital</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Series F</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>Bark</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Post-IPO</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>EMX Digital</t>
+          <t>Medly</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Series C</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Bark</t>
+          <t>Getir</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Post-IPO</t>
+          <t>Series E</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Medly</t>
+          <t>Articulate</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Series C</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Getir</t>
+          <t>Bustle Digital Group</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3967,112 +3967,112 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1800</v>
+        <v>80</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Articulate</t>
+          <t>Tilting Point</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1500</v>
+        <v>235</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Bustle Digital Group</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Series E</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Tilting Point</t>
+          <t>Innovid</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Post-IPO</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Consumer</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>235</v>
+        <v>295</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Gemini</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>47</v>
+        <v>423</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Innovid</t>
+          <t xml:space="preserve">WeWork </t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4082,20 +4082,20 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>295</v>
+        <v>22200</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Saks.com</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4105,20 +4105,20 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>423</v>
+        <v>965</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve">WeWork </t>
+          <t>Teladoc Health</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4128,825 +4128,825 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>22200</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Saks.com</t>
+          <t>Lucid Diagnostics</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Post-IPO</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Teladoc Health</t>
+          <t>Snappy</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Post-IPO</t>
+          <t>Series C</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>172</v>
+        <v>104</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Lucid Diagnostics</t>
+          <t>Citizen</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Post-IPO</t>
+          <t>Series C</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Snappy</t>
+          <t>Genesis</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Series C</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Citizen</t>
+          <t>Personetics</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Series C</t>
+          <t>Private Equity</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Consumer</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>133</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Genesis</t>
+          <t>Attentive</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Series E</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>863</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Personetics</t>
+          <t>Compass</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Private Equity</t>
+          <t>Post-IPO</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Support</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>178</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Attentive</t>
+          <t>LeafLink</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Series E</t>
+          <t>Series C</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>863</v>
+        <v>379</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Compass</t>
+          <t>Convene</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Post-IPO</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1600</v>
+        <v>281</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>LeafLink</t>
+          <t>Blue Apron</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Series C</t>
+          <t>Post-IPO</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>379</v>
+        <v>352</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Convene</t>
+          <t>FireHydrant</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>281</v>
+        <v>32</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Blue Apron</t>
+          <t>Integral Ad Science</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Post-IPO</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>352</v>
+        <v>116</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>FireHydrant</t>
+          <t>Lithic</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series C</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Infrastructure</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>32</v>
+        <v>115</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Integral Ad Science</t>
+          <t>Bizzabo</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Series E</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>116</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Lithic</t>
+          <t>Wonder</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Series C</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>115</v>
+        <v>850</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Bizzabo</t>
+          <t>Candy Digital</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Series E</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Wonder</t>
+          <t>BlockFi</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series E</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Candy Digital</t>
+          <t>Capitolis</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>100</v>
+        <v>281</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>BlockFi</t>
+          <t>Chili Piper</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Series E</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1000</v>
+        <v>54</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Capitolis</t>
+          <t>UiPath</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Post-IPO</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>281</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Chili Piper</t>
+          <t>OwnBackup</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series E</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>54</v>
+        <v>507</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>UiPath</t>
+          <t>Ribbon</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Post-IPO</t>
+          <t>Series C</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>2000</v>
+        <v>405</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>OwnBackup</t>
+          <t>Varonis</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Series E</t>
+          <t>Post-IPO</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>507</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ribbon</t>
+          <t>Benitago Group</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Series C</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>405</v>
+        <v>380</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Varonis</t>
+          <t>EquityZen</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Post-IPO</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Benitago Group</t>
+          <t>Playdots</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>380</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>EquityZen</t>
+          <t>NYDIG</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Private Equity</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>11</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Playdots</t>
+          <t>LivePerson</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Post-IPO</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Consumer</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Noom</t>
+          <t>Taboola</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Series F</t>
+          <t>Post-IPO</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>657</v>
+        <v>445</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>NYDIG</t>
+          <t>CommonBond</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Private Equity</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1400</v>
+        <v>125</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>LivePerson</t>
+          <t>The Wing</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Post-IPO</t>
+          <t>Series C</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Support</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>42</v>
+        <v>117</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Taboola</t>
+          <t>Argyle</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Post-IPO</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>445</v>
+        <v>78</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>CommonBond</t>
+          <t>Packable</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>125</v>
+        <v>472</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>The Wing</t>
+          <t>Skillshare</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Series C</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Argyle</t>
+          <t>Thirty Madison</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series C</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>78</v>
+        <v>209</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Packable</t>
+          <t>Updater</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4956,135 +4956,135 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Skillshare</t>
+          <t>ContraFect</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Post-IPO</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>136</v>
+        <v>380</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Thirty Madison</t>
+          <t>DailyPay</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Series C</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>209</v>
+        <v>814</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Updater</t>
+          <t>Warby Parker</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Post-IPO</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>467</v>
+        <v>535</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ContraFect</t>
+          <t>Daily Harvest</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Post-IPO</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Glossier</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Series E</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
         <v>266</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>DailyPay</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E202" t="n">
-        <v>814</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Warby Parker</t>
+          <t>FuboTV</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -5094,112 +5094,112 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Consumer</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>535</v>
+        <v>151</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Daily Harvest</t>
+          <t>Lunchbox</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Glossier</t>
+          <t>Catalyst</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Series E</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>266</v>
+        <v>45</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>FuboTV</t>
+          <t>Splice</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Post-IPO</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Lunchbox</t>
+          <t>Capsule</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>72</v>
+        <v>570</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Lusha</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -5209,43 +5209,43 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Support</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>45</v>
+        <v>245</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Splice</t>
+          <t>Freshly</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>159</v>
+        <v>107</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Capsule</t>
+          <t>SundaySky</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5255,20 +5255,20 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>570</v>
+        <v>74</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Lusha</t>
+          <t>Butler Hospitality</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -5278,135 +5278,135 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>245</v>
+        <v>50</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Freshly</t>
+          <t>Cedar</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>107</v>
+        <v>351</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>SundaySky</t>
+          <t>SQream</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Butler Hospitality</t>
+          <t>Thimble</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Cedar</t>
+          <t>Celsius</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>351</v>
+        <v>864</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>SQream</t>
+          <t>LetsGetChecked</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>77</v>
+        <v>263</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Thimble</t>
+          <t>Remesh</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -5416,89 +5416,89 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Celsius</t>
+          <t>Stash Financial</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>864</v>
+        <v>480</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>LetsGetChecked</t>
+          <t>Feather</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>263</v>
+        <v>76</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Remesh</t>
+          <t>Mark43</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Series E</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Support</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>38</v>
+        <v>229</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Stash Financial</t>
+          <t>Ro</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -5508,135 +5508,135 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Feather</t>
+          <t>JOKR</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>76</v>
+        <v>430</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Mark43</t>
+          <t>Jellysmack</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Series E</t>
+          <t>Series C</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>229</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Ro</t>
+          <t>Deep Instinct</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>1000</v>
+        <v>259</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>JOKR</t>
+          <t>Food52</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>430</v>
+        <v>176</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Deep Instinct</t>
+          <t>PolicyGenius</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Series E</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>259</v>
+        <v>286</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Food52</t>
+          <t>Thirty Madison</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -5646,181 +5646,181 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>176</v>
+        <v>209</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>PolicyGenius</t>
+          <t>CommonBond</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Series E</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>286</v>
+        <v>130</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Thirty Madison</t>
+          <t>Section4</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>209</v>
+        <v>37</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>CommonBond</t>
+          <t>Vise</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Series C</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Section4</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Vise</t>
+          <t>Halcyon Health</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Series C</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>128</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Knock</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>58</v>
+        <v>654</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Halcyon Health</t>
+          <t>Hyperscience</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Series E</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>2</v>
+        <v>289</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Knock</t>
+          <t>Rhino</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5830,641 +5830,641 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>654</v>
+        <v>133</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Hyperscience</t>
+          <t>InVision</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Series E</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>289</v>
+        <v>356</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Rhino</t>
+          <t>Genius</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Glossier</t>
+          <t>Casper</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Series E</t>
+          <t>Post-IPO</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Consumer</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>266</v>
+        <v>339</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>InVision</t>
+          <t>HuffPo</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Product</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>356</v>
+        <v>37</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Genius</t>
+          <t>Limelight</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Consumer</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Casper</t>
+          <t>Domio</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Post-IPO</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>339</v>
+        <v>116</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>HuffPo</t>
+          <t>Knotel</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Series C</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>37</v>
+        <v>560</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Limelight</t>
+          <t>Air</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Recruiting</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Domio</t>
+          <t>InVision</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series F</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>116</v>
+        <v>350.2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Knotel</t>
+          <t>Glossier</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Series C</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>560</v>
+        <v>186.4</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Air</t>
+          <t>tZero</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>18</v>
+        <v>472</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>InVision</t>
+          <t>OnDeck</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Series F</t>
+          <t>Post-IPO</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Product</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>350.2</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Glossier</t>
+          <t>Sprinklr</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Series F</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>186.4</v>
+        <v>228</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>tZero</t>
+          <t xml:space="preserve">Atlas Obscura </t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>472</v>
+        <v>32</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>OnDeck</t>
+          <t>Branch</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Post-IPO</t>
+          <t>Seed</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Sprinklr</t>
+          <t>MakerBot</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Series F</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Support</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>228</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t xml:space="preserve">Atlas Obscura </t>
+          <t>The Sill</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Branch</t>
+          <t>Glitch</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Seed</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>MakerBot</t>
+          <t>Masse</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Seed</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Consumer</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>The Sill</t>
+          <t>Quartz</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Glitch</t>
+          <t>Kickstarter</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Product</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Masse</t>
+          <t>BetterCloud</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Seed</t>
+          <t>Series E</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Quartz</t>
+          <t>Petal</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Kickstarter</t>
+          <t>Cadre</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Series C</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>10</v>
+        <v>133</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>BetterCloud</t>
+          <t>N26</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Series E</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>111</v>
+        <v>782</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Petal</t>
+          <t>Jump</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Cadre</t>
+          <t>Flatiron School</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Series C</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>133</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>N26</t>
+          <t>Andela</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -6474,342 +6474,342 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>782</v>
+        <v>181</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Jump</t>
+          <t>Stack Overflow</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Transportation</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Flatiron School</t>
+          <t>LiveTiles</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Post-IPO</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Andela</t>
+          <t>Namely</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Series E</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Recruiting</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>181</v>
+        <v>217</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Stack Overflow</t>
+          <t>Kitopi</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Recruiting</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>LiveTiles</t>
+          <t>Transfix</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Post-IPO</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>46</v>
+        <v>128</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Namely</t>
+          <t>Cheddar</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Series E</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>217</v>
+        <v>54</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Kitopi</t>
+          <t>Oscar Health</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>89</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transfix</t>
+          <t>Simon Data</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Series C</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Logistics</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>128</v>
+        <v>68</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Cheddar</t>
+          <t>ConsenSys</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Oscar Health</t>
+          <t>Greenhouse</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>1300</v>
+        <v>110</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Simon Data</t>
+          <t>Food52</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Series C</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>68</v>
+        <v>96</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ConsenSys</t>
+          <t>Grailed</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Greenhouse</t>
+          <t>Button</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Series C</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Recruiting</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>110</v>
+        <v>64</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Food52</t>
+          <t>Eden / Managed By Q</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>96</v>
+        <v>40</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Grailed</t>
+          <t>Slice Labs</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -6819,112 +6819,112 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>Zola</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Series C</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>64</v>
+        <v>140</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Eden / Managed By Q</t>
+          <t>Group Nine Media</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>40</v>
+        <v>190</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Slice Labs</t>
+          <t>BounceX</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Zola</t>
+          <t>Jetty</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Group Nine Media</t>
+          <t>G/O Media Group</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -6934,20 +6934,20 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>BounceX</t>
+          <t>The Muse</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -6957,562 +6957,470 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Jetty</t>
+          <t>ClassPass</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series E</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>40</v>
+        <v>549</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>G/O Media Group</t>
+          <t>Industrious</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>The Muse</t>
+          <t>1stdibs</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Recruiting</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>28</v>
+        <v>253</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ClassPass</t>
+          <t>Latch</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Series E</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>549</v>
+        <v>152</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Industrious</t>
+          <t>TripleLift</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E289" t="n">
-        <v>222</v>
+        <v>16</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>1stdibs</t>
+          <t>Wonder</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Series D</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E290" t="n">
-        <v>253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Latch</t>
+          <t>Pebblepost</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series C</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>152</v>
+        <v>81</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>TripleLift</t>
+          <t>Loftsmart</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Wonder</t>
+          <t>Iris Nova</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Seed</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E293" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Pebblepost</t>
+          <t>WeWork</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Series C</t>
+          <t>Series H</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>81</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Domio</t>
+          <t>Rent the Runway</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series F</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>116</v>
+        <v>541</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Loftsmart</t>
+          <t>Blueground</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Iris Nova</t>
+          <t>ThirdLove</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Seed</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>WeWork</t>
+          <t>Overtime</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Series H</t>
+          <t>Series B</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>2250</v>
+        <v>35</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Rent the Runway</t>
+          <t>Universal Standard</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Series F</t>
+          <t>Series A</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E299" t="n">
-        <v>541</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Blueground</t>
+          <t>Compass</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series G</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E300" t="n">
-        <v>77</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>ThirdLove</t>
+          <t>Convene</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series D</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E301" t="n">
-        <v>68</v>
+        <v>280</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Overtime</t>
+          <t>Eight Sleep</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Series B</t>
+          <t>Series C</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E302" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Universal Standard</t>
+          <t>Flywheel Sports</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Series A</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E303" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Compass</t>
+          <t>Popin</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Series G</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E304" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>Convene</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>Series D</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>Real Estate</t>
-        </is>
-      </c>
-      <c r="E305" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>Eight Sleep</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>Series C</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>Retail</t>
-        </is>
-      </c>
-      <c r="E306" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>Flywheel Sports</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>Acquired</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="E307" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>Popin</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="E308" t="n">
         <v>13</v>
       </c>
     </row>
